--- a/datos/pima_indians.xlsx
+++ b/datos/pima_indians.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blars\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ciencia_datos\talleres\UNALTECOCO-2020-01\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76A1E657-6F45-4A05-9D5D-E3E0A63C8CDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB644304-EF74-4C7A-B9D3-D0FB169621A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2874" yWindow="1986" windowWidth="17280" windowHeight="9444"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="11520" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pima_indians" sheetId="1" r:id="rId1"/>
@@ -22,37 +22,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Time_Pregnant</t>
+    <t>num_gestaciones</t>
   </si>
   <si>
-    <t>PGC</t>
+    <t>concen_plasma_glucosa</t>
   </si>
   <si>
-    <t>Dias_BP</t>
+    <t>diastolica</t>
   </si>
   <si>
-    <t>Tri_SkinFold</t>
+    <t>espesor_cutanea</t>
   </si>
   <si>
-    <t>SI</t>
+    <t>insulina_serica</t>
   </si>
   <si>
-    <t>BMI</t>
+    <t>indice_mc</t>
   </si>
   <si>
-    <t>DPF</t>
+    <t>fn_pedigree_diabetes</t>
   </si>
   <si>
-    <t>Age</t>
+    <t>edad</t>
   </si>
   <si>
-    <t>Class</t>
+    <t>resultado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -534,48 +534,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -886,14 +886,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I769"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6</v>
       </c>
@@ -951,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -980,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -1009,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1038,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1067,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1096,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1212,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1241,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1299,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1328,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1357,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1386,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1415,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1444,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1473,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1502,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -1618,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -1647,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1676,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1705,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1734,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
@@ -1763,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1821,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1908,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1966,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2024,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2053,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2082,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2111,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -2169,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>7</v>
       </c>
@@ -2227,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2285,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2314,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>7</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7</v>
       </c>
@@ -2372,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2401,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5</v>
       </c>
@@ -2459,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -2488,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
@@ -2517,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2546,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0</v>
       </c>
@@ -2662,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2691,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
@@ -2720,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5</v>
       </c>
@@ -2749,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2778,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7</v>
       </c>
@@ -2807,7 +2812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5</v>
       </c>
@@ -2836,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -2865,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2923,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -2952,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>13</v>
       </c>
@@ -3039,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -3068,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3097,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3126,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7</v>
       </c>
@@ -3155,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5</v>
       </c>
@@ -3184,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -3213,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -3242,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3271,7 +3276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -3300,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
@@ -3329,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>0</v>
       </c>
@@ -3358,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -3416,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>13</v>
       </c>
@@ -3445,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3474,7 +3479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>15</v>
       </c>
@@ -3503,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3532,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3561,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -3619,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -3648,7 +3653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3677,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -3706,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -3735,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3764,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6</v>
       </c>
@@ -3793,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3851,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3880,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>0</v>
       </c>
@@ -3909,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3938,7 +3943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -3967,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3996,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4025,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -4054,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -4083,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>0</v>
       </c>
@@ -4112,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -4141,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>8</v>
       </c>
@@ -4170,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -4228,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7</v>
       </c>
@@ -4257,7 +4262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>4</v>
       </c>
@@ -4286,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -4344,7 +4349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>4</v>
       </c>
@@ -4373,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>4</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>0</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6</v>
       </c>
@@ -4460,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -4489,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -4518,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>0</v>
       </c>
@@ -4547,7 +4552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -4605,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4663,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>0</v>
       </c>
@@ -4692,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>9</v>
       </c>
@@ -4750,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -4779,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8</v>
       </c>
@@ -4808,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2</v>
       </c>
@@ -4837,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
@@ -4866,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>0</v>
       </c>
@@ -4895,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>0</v>
       </c>
@@ -4924,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>0</v>
       </c>
@@ -4953,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -4982,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -5011,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -5069,7 +5074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>10</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>4</v>
       </c>
@@ -5127,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>0</v>
       </c>
@@ -5156,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>9</v>
       </c>
@@ -5185,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
@@ -5214,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -5243,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2</v>
       </c>
@@ -5272,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5301,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>4</v>
       </c>
@@ -5330,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>9</v>
       </c>
@@ -5359,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5388,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>8</v>
       </c>
@@ -5417,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -5446,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5504,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2</v>
       </c>
@@ -5533,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>17</v>
       </c>
@@ -5562,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>4</v>
       </c>
@@ -5591,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7</v>
       </c>
@@ -5620,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>0</v>
       </c>
@@ -5649,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2</v>
       </c>
@@ -5678,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -5707,7 +5712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6</v>
       </c>
@@ -5736,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3</v>
       </c>
@@ -5765,7 +5770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>4</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4</v>
       </c>
@@ -5823,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -5852,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6</v>
       </c>
@@ -5881,7 +5886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>6</v>
       </c>
@@ -5910,7 +5915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2</v>
       </c>
@@ -5939,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5968,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2</v>
       </c>
@@ -5997,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -6026,7 +6031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>6</v>
       </c>
@@ -6055,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>0</v>
       </c>
@@ -6084,7 +6089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5</v>
       </c>
@@ -6113,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>5</v>
       </c>
@@ -6142,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>6</v>
       </c>
@@ -6171,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>0</v>
       </c>
@@ -6200,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6229,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>5</v>
       </c>
@@ -6258,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>4</v>
       </c>
@@ -6287,7 +6292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>7</v>
       </c>
@@ -6316,7 +6321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8</v>
       </c>
@@ -6345,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -6374,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8</v>
       </c>
@@ -6403,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>5</v>
       </c>
@@ -6432,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -6461,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>9</v>
       </c>
@@ -6490,7 +6495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>7</v>
       </c>
@@ -6519,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>11</v>
       </c>
@@ -6548,7 +6553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8</v>
       </c>
@@ -6577,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>5</v>
       </c>
@@ -6606,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6635,7 +6640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -6664,7 +6669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>4</v>
       </c>
@@ -6693,7 +6698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>4</v>
       </c>
@@ -6722,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>0</v>
       </c>
@@ -6751,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -6780,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>0</v>
       </c>
@@ -6809,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2</v>
       </c>
@@ -6838,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>6</v>
       </c>
@@ -6867,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>5</v>
       </c>
@@ -6896,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>8</v>
       </c>
@@ -6925,7 +6930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>5</v>
       </c>
@@ -6954,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -6983,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>7</v>
       </c>
@@ -7012,7 +7017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2</v>
       </c>
@@ -7041,7 +7046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>0</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>7</v>
       </c>
@@ -7099,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>0</v>
       </c>
@@ -7128,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>9</v>
       </c>
@@ -7157,7 +7162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>12</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>5</v>
       </c>
@@ -7215,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>6</v>
       </c>
@@ -7244,7 +7249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>5</v>
       </c>
@@ -7273,7 +7278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>5</v>
       </c>
@@ -7302,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0</v>
       </c>
@@ -7331,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2</v>
       </c>
@@ -7360,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>7</v>
       </c>
@@ -7389,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>7</v>
       </c>
@@ -7418,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -7447,7 +7452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -7476,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>0</v>
       </c>
@@ -7505,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>3</v>
       </c>
@@ -7534,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4</v>
       </c>
@@ -7563,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>0</v>
       </c>
@@ -7592,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>6</v>
       </c>
@@ -7650,7 +7655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -7679,7 +7684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4</v>
       </c>
@@ -7708,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>3</v>
       </c>
@@ -7737,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4</v>
       </c>
@@ -7766,7 +7771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>7</v>
       </c>
@@ -7795,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>0</v>
       </c>
@@ -7824,7 +7829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>9</v>
       </c>
@@ -7853,7 +7858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>0</v>
       </c>
@@ -7882,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -7911,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4</v>
       </c>
@@ -7940,7 +7945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>3</v>
       </c>
@@ -7969,7 +7974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>6</v>
       </c>
@@ -7998,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>2</v>
       </c>
@@ -8027,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>9</v>
       </c>
@@ -8056,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>10</v>
       </c>
@@ -8085,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>0</v>
       </c>
@@ -8114,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>9</v>
       </c>
@@ -8143,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -8172,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>9</v>
       </c>
@@ -8201,7 +8206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2</v>
       </c>
@@ -8230,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2</v>
       </c>
@@ -8259,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>0</v>
       </c>
@@ -8288,7 +8293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>12</v>
       </c>
@@ -8317,7 +8322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1</v>
       </c>
@@ -8346,7 +8351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>3</v>
       </c>
@@ -8375,7 +8380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -8404,7 +8409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -8433,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>11</v>
       </c>
@@ -8462,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>3</v>
       </c>
@@ -8491,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>3</v>
       </c>
@@ -8520,7 +8525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4</v>
       </c>
@@ -8549,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3</v>
       </c>
@@ -8578,7 +8583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4</v>
       </c>
@@ -8607,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>5</v>
       </c>
@@ -8636,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>0</v>
       </c>
@@ -8665,7 +8670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -8694,7 +8699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>0</v>
       </c>
@@ -8723,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -8752,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>10</v>
       </c>
@@ -8781,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -8810,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3</v>
       </c>
@@ -8839,7 +8844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1</v>
       </c>
@@ -8868,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>13</v>
       </c>
@@ -8897,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -8926,7 +8931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>7</v>
       </c>
@@ -8955,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>0</v>
       </c>
@@ -8984,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>5</v>
       </c>
@@ -9013,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -9042,7 +9047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>0</v>
       </c>
@@ -9071,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>10</v>
       </c>
@@ -9100,7 +9105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>7</v>
       </c>
@@ -9129,7 +9134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>7</v>
       </c>
@@ -9158,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -9187,7 +9192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>7</v>
       </c>
@@ -9216,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>5</v>
       </c>
@@ -9245,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1</v>
       </c>
@@ -9274,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>4</v>
       </c>
@@ -9303,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>5</v>
       </c>
@@ -9332,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>0</v>
       </c>
@@ -9361,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>0</v>
       </c>
@@ -9390,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -9419,7 +9424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1</v>
       </c>
@@ -9448,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>0</v>
       </c>
@@ -9477,7 +9482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>6</v>
       </c>
@@ -9506,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>0</v>
       </c>
@@ -9564,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>14</v>
       </c>
@@ -9593,7 +9598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>8</v>
       </c>
@@ -9622,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>0</v>
       </c>
@@ -9651,7 +9656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -9680,7 +9685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>5</v>
       </c>
@@ -9709,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>5</v>
       </c>
@@ -9738,7 +9743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>3</v>
       </c>
@@ -9767,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -9796,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>10</v>
       </c>
@@ -9825,7 +9830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>0</v>
       </c>
@@ -9854,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>0</v>
       </c>
@@ -9883,7 +9888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -9912,7 +9917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>6</v>
       </c>
@@ -9941,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>0</v>
       </c>
@@ -9970,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -9999,7 +10004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3</v>
       </c>
@@ -10028,7 +10033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>7</v>
       </c>
@@ -10057,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -10086,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>3</v>
       </c>
@@ -10115,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>3</v>
       </c>
@@ -10144,7 +10149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>3</v>
       </c>
@@ -10173,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>6</v>
       </c>
@@ -10202,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>4</v>
       </c>
@@ -10231,7 +10236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>3</v>
       </c>
@@ -10260,7 +10265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>0</v>
       </c>
@@ -10289,7 +10294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>13</v>
       </c>
@@ -10318,7 +10323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -10347,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1</v>
       </c>
@@ -10376,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1</v>
       </c>
@@ -10405,7 +10410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>10</v>
       </c>
@@ -10434,7 +10439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -10463,7 +10468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>6</v>
       </c>
@@ -10492,7 +10497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>8</v>
       </c>
@@ -10521,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -10550,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1</v>
       </c>
@@ -10579,7 +10584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>12</v>
       </c>
@@ -10608,7 +10613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1</v>
       </c>
@@ -10637,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>0</v>
       </c>
@@ -10666,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>0</v>
       </c>
@@ -10695,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5</v>
       </c>
@@ -10724,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>9</v>
       </c>
@@ -10753,7 +10758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>7</v>
       </c>
@@ -10782,7 +10787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1</v>
       </c>
@@ -10811,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1</v>
       </c>
@@ -10840,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1</v>
       </c>
@@ -10869,7 +10874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>5</v>
       </c>
@@ -10898,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>8</v>
       </c>
@@ -10927,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>8</v>
       </c>
@@ -10956,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1</v>
       </c>
@@ -10985,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>3</v>
       </c>
@@ -11014,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>3</v>
       </c>
@@ -11043,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>5</v>
       </c>
@@ -11072,7 +11077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>4</v>
       </c>
@@ -11101,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>4</v>
       </c>
@@ -11130,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>3</v>
       </c>
@@ -11159,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1</v>
       </c>
@@ -11188,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>3</v>
       </c>
@@ -11217,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>9</v>
       </c>
@@ -11246,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1</v>
       </c>
@@ -11275,7 +11280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>13</v>
       </c>
@@ -11304,7 +11309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>12</v>
       </c>
@@ -11333,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1</v>
       </c>
@@ -11362,7 +11367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>5</v>
       </c>
@@ -11391,7 +11396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>5</v>
       </c>
@@ -11420,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>5</v>
       </c>
@@ -11449,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>4</v>
       </c>
@@ -11478,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>4</v>
       </c>
@@ -11507,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>5</v>
       </c>
@@ -11536,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>6</v>
       </c>
@@ -11565,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>0</v>
       </c>
@@ -11594,7 +11599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>3</v>
       </c>
@@ -11623,7 +11628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1</v>
       </c>
@@ -11652,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>3</v>
       </c>
@@ -11681,7 +11686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>0</v>
       </c>
@@ -11710,7 +11715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>0</v>
       </c>
@@ -11739,7 +11744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -11768,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -11797,7 +11802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>12</v>
       </c>
@@ -11826,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>0</v>
       </c>
@@ -11855,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1</v>
       </c>
@@ -11884,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>4</v>
       </c>
@@ -11913,7 +11918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>0</v>
       </c>
@@ -11942,7 +11947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1</v>
       </c>
@@ -11971,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>0</v>
       </c>
@@ -12000,7 +12005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1</v>
       </c>
@@ -12029,7 +12034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1</v>
       </c>
@@ -12058,7 +12063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1</v>
       </c>
@@ -12087,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1</v>
       </c>
@@ -12116,7 +12121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>5</v>
       </c>
@@ -12145,7 +12150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>8</v>
       </c>
@@ -12174,7 +12179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>5</v>
       </c>
@@ -12203,7 +12208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>3</v>
       </c>
@@ -12232,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1</v>
       </c>
@@ -12261,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>5</v>
       </c>
@@ -12290,7 +12295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1</v>
       </c>
@@ -12319,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>4</v>
       </c>
@@ -12348,7 +12353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>4</v>
       </c>
@@ -12377,7 +12382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -12406,7 +12411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>3</v>
       </c>
@@ -12435,7 +12440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>0</v>
       </c>
@@ -12464,7 +12469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>3</v>
       </c>
@@ -12493,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>3</v>
       </c>
@@ -12522,7 +12527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>4</v>
       </c>
@@ -12551,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>6</v>
       </c>
@@ -12580,7 +12585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>5</v>
       </c>
@@ -12609,7 +12614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>9</v>
       </c>
@@ -12638,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>5</v>
       </c>
@@ -12667,7 +12672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -12696,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>4</v>
       </c>
@@ -12725,7 +12730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>0</v>
       </c>
@@ -12754,7 +12759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>8</v>
       </c>
@@ -12783,7 +12788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1</v>
       </c>
@@ -12812,7 +12817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>6</v>
       </c>
@@ -12841,7 +12846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1</v>
       </c>
@@ -12870,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1</v>
       </c>
@@ -12899,7 +12904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1</v>
       </c>
@@ -12928,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>0</v>
       </c>
@@ -12957,7 +12962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>3</v>
       </c>
@@ -12986,7 +12991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>1</v>
       </c>
@@ -13015,7 +13020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>4</v>
       </c>
@@ -13044,7 +13049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>1</v>
       </c>
@@ -13073,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>3</v>
       </c>
@@ -13102,7 +13107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>1</v>
       </c>
@@ -13131,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -13160,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>0</v>
       </c>
@@ -13189,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -13218,7 +13223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>8</v>
       </c>
@@ -13247,7 +13252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>4</v>
       </c>
@@ -13276,7 +13281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>0</v>
       </c>
@@ -13305,7 +13310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>1</v>
       </c>
@@ -13334,7 +13339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>0</v>
       </c>
@@ -13363,7 +13368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>1</v>
       </c>
@@ -13392,7 +13397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -13421,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>3</v>
       </c>
@@ -13450,7 +13455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>1</v>
       </c>
@@ -13479,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -13508,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>1</v>
       </c>
@@ -13537,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>0</v>
       </c>
@@ -13566,7 +13571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>12</v>
       </c>
@@ -13595,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>5</v>
       </c>
@@ -13624,7 +13629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>1</v>
       </c>
@@ -13653,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>6</v>
       </c>
@@ -13682,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>0</v>
       </c>
@@ -13711,7 +13716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -13740,7 +13745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>4</v>
       </c>
@@ -13769,7 +13774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>8</v>
       </c>
@@ -13798,7 +13803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>4</v>
       </c>
@@ -13827,7 +13832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>0</v>
       </c>
@@ -13856,7 +13861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>1</v>
       </c>
@@ -13885,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>0</v>
       </c>
@@ -13914,7 +13919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>0</v>
       </c>
@@ -13943,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>0</v>
       </c>
@@ -13972,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>1</v>
       </c>
@@ -14001,7 +14006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -14030,7 +14035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>0</v>
       </c>
@@ -14059,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -14088,7 +14093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -14117,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>14</v>
       </c>
@@ -14146,7 +14151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>1</v>
       </c>
@@ -14175,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>5</v>
       </c>
@@ -14204,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>10</v>
       </c>
@@ -14233,7 +14238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>9</v>
       </c>
@@ -14262,7 +14267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>9</v>
       </c>
@@ -14291,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>1</v>
       </c>
@@ -14320,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>8</v>
       </c>
@@ -14349,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>5</v>
       </c>
@@ -14378,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>10</v>
       </c>
@@ -14407,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>0</v>
       </c>
@@ -14436,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>0</v>
       </c>
@@ -14465,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>0</v>
       </c>
@@ -14494,7 +14499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>8</v>
       </c>
@@ -14523,7 +14528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>6</v>
       </c>
@@ -14552,7 +14557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>1</v>
       </c>
@@ -14581,7 +14586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>0</v>
       </c>
@@ -14610,7 +14615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>0</v>
       </c>
@@ -14639,7 +14644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>7</v>
       </c>
@@ -14668,7 +14673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>4</v>
       </c>
@@ -14697,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>0</v>
       </c>
@@ -14726,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2</v>
       </c>
@@ -14755,7 +14760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>7</v>
       </c>
@@ -14784,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>8</v>
       </c>
@@ -14813,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>4</v>
       </c>
@@ -14842,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>3</v>
       </c>
@@ -14871,7 +14876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>0</v>
       </c>
@@ -14900,7 +14905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>4</v>
       </c>
@@ -14929,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>0</v>
       </c>
@@ -14958,7 +14963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>0</v>
       </c>
@@ -14987,7 +14992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>0</v>
       </c>
@@ -15016,7 +15021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>1</v>
       </c>
@@ -15045,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>0</v>
       </c>
@@ -15074,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>4</v>
       </c>
@@ -15103,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>8</v>
       </c>
@@ -15132,7 +15137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2</v>
       </c>
@@ -15161,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2</v>
       </c>
@@ -15190,7 +15195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>4</v>
       </c>
@@ -15219,7 +15224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>4</v>
       </c>
@@ -15248,7 +15253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>3</v>
       </c>
@@ -15277,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>6</v>
       </c>
@@ -15306,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>5</v>
       </c>
@@ -15335,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2</v>
       </c>
@@ -15364,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>7</v>
       </c>
@@ -15393,7 +15398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>6</v>
       </c>
@@ -15422,7 +15427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -15451,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>3</v>
       </c>
@@ -15480,7 +15485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>6</v>
       </c>
@@ -15509,7 +15514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>7</v>
       </c>
@@ -15538,7 +15543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>3</v>
       </c>
@@ -15567,7 +15572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>10</v>
       </c>
@@ -15596,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>0</v>
       </c>
@@ -15625,7 +15630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>1</v>
       </c>
@@ -15654,7 +15659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2</v>
       </c>
@@ -15683,7 +15688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>8</v>
       </c>
@@ -15712,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>12</v>
       </c>
@@ -15741,7 +15746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>0</v>
       </c>
@@ -15770,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>9</v>
       </c>
@@ -15799,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2</v>
       </c>
@@ -15828,7 +15833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>3</v>
       </c>
@@ -15857,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>3</v>
       </c>
@@ -15886,7 +15891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>9</v>
       </c>
@@ -15915,7 +15920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>7</v>
       </c>
@@ -15944,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>13</v>
       </c>
@@ -15973,7 +15978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>6</v>
       </c>
@@ -16002,7 +16007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -16031,7 +16036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>3</v>
       </c>
@@ -16060,7 +16065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>6</v>
       </c>
@@ -16089,7 +16094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>9</v>
       </c>
@@ -16118,7 +16123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>3</v>
       </c>
@@ -16147,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>3</v>
       </c>
@@ -16176,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>1</v>
       </c>
@@ -16205,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>3</v>
       </c>
@@ -16234,7 +16239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>0</v>
       </c>
@@ -16263,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>0</v>
       </c>
@@ -16292,7 +16297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2</v>
       </c>
@@ -16321,7 +16326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>0</v>
       </c>
@@ -16350,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>1</v>
       </c>
@@ -16379,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>6</v>
       </c>
@@ -16408,7 +16413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>1</v>
       </c>
@@ -16437,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>4</v>
       </c>
@@ -16466,7 +16471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>0</v>
       </c>
@@ -16495,7 +16500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>0</v>
       </c>
@@ -16524,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>0</v>
       </c>
@@ -16553,7 +16558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>3</v>
       </c>
@@ -16582,7 +16587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>8</v>
       </c>
@@ -16611,7 +16616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>3</v>
       </c>
@@ -16640,7 +16645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>10</v>
       </c>
@@ -16669,7 +16674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>4</v>
       </c>
@@ -16698,7 +16703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>1</v>
       </c>
@@ -16727,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>8</v>
       </c>
@@ -16756,7 +16761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>5</v>
       </c>
@@ -16785,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>4</v>
       </c>
@@ -16814,7 +16819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>1</v>
       </c>
@@ -16843,7 +16848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>4</v>
       </c>
@@ -16872,7 +16877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>1</v>
       </c>
@@ -16901,7 +16906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>3</v>
       </c>
@@ -16930,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>6</v>
       </c>
@@ -16959,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>1</v>
       </c>
@@ -16988,7 +16993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>1</v>
       </c>
@@ -17017,7 +17022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>7</v>
       </c>
@@ -17046,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>1</v>
       </c>
@@ -17075,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>8</v>
       </c>
@@ -17104,7 +17109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>11</v>
       </c>
@@ -17133,7 +17138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>11</v>
       </c>
@@ -17162,7 +17167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>6</v>
       </c>
@@ -17191,7 +17196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>0</v>
       </c>
@@ -17220,7 +17225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>1</v>
       </c>
@@ -17249,7 +17254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>6</v>
       </c>
@@ -17278,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>0</v>
       </c>
@@ -17307,7 +17312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>2</v>
       </c>
@@ -17336,7 +17341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>1</v>
       </c>
@@ -17365,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>6</v>
       </c>
@@ -17394,7 +17399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>4</v>
       </c>
@@ -17423,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>0</v>
       </c>
@@ -17452,7 +17457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>3</v>
       </c>
@@ -17481,7 +17486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>2</v>
       </c>
@@ -17510,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>3</v>
       </c>
@@ -17539,7 +17544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>2</v>
       </c>
@@ -17568,7 +17573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>1</v>
       </c>
@@ -17597,7 +17602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>1</v>
       </c>
@@ -17626,7 +17631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>6</v>
       </c>
@@ -17655,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>2</v>
       </c>
@@ -17684,7 +17689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>10</v>
       </c>
@@ -17713,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>2</v>
       </c>
@@ -17742,7 +17747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>0</v>
       </c>
@@ -17771,7 +17776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>6</v>
       </c>
@@ -17800,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>12</v>
       </c>
@@ -17829,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>8</v>
       </c>
@@ -17858,7 +17863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>8</v>
       </c>
@@ -17887,7 +17892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>1</v>
       </c>
@@ -17916,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>8</v>
       </c>
@@ -17945,7 +17950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>6</v>
       </c>
@@ -17974,7 +17979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>3</v>
       </c>
@@ -18003,7 +18008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>0</v>
       </c>
@@ -18032,7 +18037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>11</v>
       </c>
@@ -18061,7 +18066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>2</v>
       </c>
@@ -18090,7 +18095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>3</v>
       </c>
@@ -18119,7 +18124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>2</v>
       </c>
@@ -18148,7 +18153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>6</v>
       </c>
@@ -18177,7 +18182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>0</v>
       </c>
@@ -18206,7 +18211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>0</v>
       </c>
@@ -18235,7 +18240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>1</v>
       </c>
@@ -18264,7 +18269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>1</v>
       </c>
@@ -18293,7 +18298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>1</v>
       </c>
@@ -18322,7 +18327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>1</v>
       </c>
@@ -18351,7 +18356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>6</v>
       </c>
@@ -18380,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>1</v>
       </c>
@@ -18409,7 +18414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>7</v>
       </c>
@@ -18438,7 +18443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>4</v>
       </c>
@@ -18467,7 +18472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>1</v>
       </c>
@@ -18496,7 +18501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>1</v>
       </c>
@@ -18525,7 +18530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>1</v>
       </c>
@@ -18554,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -18583,7 +18588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>1</v>
       </c>
@@ -18612,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>3</v>
       </c>
@@ -18641,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>3</v>
       </c>
@@ -18670,7 +18675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>7</v>
       </c>
@@ -18699,7 +18704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>6</v>
       </c>
@@ -18728,7 +18733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>11</v>
       </c>
@@ -18757,7 +18762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>3</v>
       </c>
@@ -18786,7 +18791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>6</v>
       </c>
@@ -18815,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>2</v>
       </c>
@@ -18844,7 +18849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>9</v>
       </c>
@@ -18873,7 +18878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>0</v>
       </c>
@@ -18902,7 +18907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>2</v>
       </c>
@@ -18931,7 +18936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>2</v>
       </c>
@@ -18960,7 +18965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>6</v>
       </c>
@@ -18989,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>0</v>
       </c>
@@ -19018,7 +19023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>2</v>
       </c>
@@ -19047,7 +19052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>4</v>
       </c>
@@ -19076,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>0</v>
       </c>
@@ -19105,7 +19110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>0</v>
       </c>
@@ -19134,7 +19139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>5</v>
       </c>
@@ -19163,7 +19168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>4</v>
       </c>
@@ -19192,7 +19197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>7</v>
       </c>
@@ -19221,7 +19226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>0</v>
       </c>
@@ -19250,7 +19255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>2</v>
       </c>
@@ -19279,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>1</v>
       </c>
@@ -19308,7 +19313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>10</v>
       </c>
@@ -19337,7 +19342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>13</v>
       </c>
@@ -19366,7 +19371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>5</v>
       </c>
@@ -19395,7 +19400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>2</v>
       </c>
@@ -19424,7 +19429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>7</v>
       </c>
@@ -19453,7 +19458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>1</v>
       </c>
@@ -19482,7 +19487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>0</v>
       </c>
@@ -19511,7 +19516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>4</v>
       </c>
@@ -19540,7 +19545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>6</v>
       </c>
@@ -19569,7 +19574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>4</v>
       </c>
@@ -19598,7 +19603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>3</v>
       </c>
@@ -19627,7 +19632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>2</v>
       </c>
@@ -19656,7 +19661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>1</v>
       </c>
@@ -19685,7 +19690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>0</v>
       </c>
@@ -19714,7 +19719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>11</v>
       </c>
@@ -19743,7 +19748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>0</v>
       </c>
@@ -19772,7 +19777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>1</v>
       </c>
@@ -19801,7 +19806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>1</v>
       </c>
@@ -19830,7 +19835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>5</v>
       </c>
@@ -19859,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>2</v>
       </c>
@@ -19888,7 +19893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>1</v>
       </c>
@@ -19917,7 +19922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>2</v>
       </c>
@@ -19946,7 +19951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>2</v>
       </c>
@@ -19975,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>1</v>
       </c>
@@ -20004,7 +20009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>11</v>
       </c>
@@ -20033,7 +20038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>3</v>
       </c>
@@ -20062,7 +20067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>10</v>
       </c>
@@ -20091,7 +20096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>1</v>
       </c>
@@ -20120,7 +20125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>8</v>
       </c>
@@ -20149,7 +20154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>9</v>
       </c>
@@ -20178,7 +20183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>6</v>
       </c>
@@ -20207,7 +20212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>1</v>
       </c>
@@ -20236,7 +20241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>4</v>
       </c>
@@ -20265,7 +20270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>10</v>
       </c>
@@ -20294,7 +20299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>6</v>
       </c>
@@ -20323,7 +20328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>9</v>
       </c>
@@ -20352,7 +20357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>6</v>
       </c>
@@ -20381,7 +20386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>1</v>
       </c>
@@ -20410,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>10</v>
       </c>
@@ -20439,7 +20444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>3</v>
       </c>
@@ -20468,7 +20473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>8</v>
       </c>
@@ -20497,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>6</v>
       </c>
@@ -20526,7 +20531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>9</v>
       </c>
@@ -20555,7 +20560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>0</v>
       </c>
@@ -20584,7 +20589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>3</v>
       </c>
@@ -20613,7 +20618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>2</v>
       </c>
@@ -20642,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>2</v>
       </c>
@@ -20671,7 +20676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>0</v>
       </c>
@@ -20700,7 +20705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -20729,7 +20734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>4</v>
       </c>
@@ -20758,7 +20763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>5</v>
       </c>
@@ -20787,7 +20792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>2</v>
       </c>
@@ -20816,7 +20821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>3</v>
       </c>
@@ -20845,7 +20850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>1</v>
       </c>
@@ -20874,7 +20879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>1</v>
       </c>
@@ -20903,7 +20908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>1</v>
       </c>
@@ -20932,7 +20937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>8</v>
       </c>
@@ -20961,7 +20966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>13</v>
       </c>
@@ -20990,7 +20995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>2</v>
       </c>
@@ -21019,7 +21024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>7</v>
       </c>
@@ -21048,7 +21053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>2</v>
       </c>
@@ -21077,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>7</v>
       </c>
@@ -21106,7 +21111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>3</v>
       </c>
@@ -21135,7 +21140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>0</v>
       </c>
@@ -21164,7 +21169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>4</v>
       </c>
@@ -21193,7 +21198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>4</v>
       </c>
@@ -21222,7 +21227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>2</v>
       </c>
@@ -21251,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>6</v>
       </c>
@@ -21280,7 +21285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>1</v>
       </c>
@@ -21309,7 +21314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>2</v>
       </c>
@@ -21338,7 +21343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>4</v>
       </c>
@@ -21367,7 +21372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>6</v>
       </c>
@@ -21396,7 +21401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>10</v>
       </c>
@@ -21425,7 +21430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>2</v>
       </c>
@@ -21454,7 +21459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>9</v>
       </c>
@@ -21483,7 +21488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>2</v>
       </c>
@@ -21512,7 +21517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>3</v>
       </c>
@@ -21541,7 +21546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>5</v>
       </c>
@@ -21570,7 +21575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>10</v>
       </c>
@@ -21599,7 +21604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>0</v>
       </c>
@@ -21628,7 +21633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>3</v>
       </c>
@@ -21657,7 +21662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>7</v>
       </c>
@@ -21686,7 +21691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>3</v>
       </c>
@@ -21715,7 +21720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>10</v>
       </c>
@@ -21744,7 +21749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>1</v>
       </c>
@@ -21773,7 +21778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>5</v>
       </c>
@@ -21802,7 +21807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>4</v>
       </c>
@@ -21831,7 +21836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>1</v>
       </c>
@@ -21860,7 +21865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>1</v>
       </c>
@@ -21889,7 +21894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>5</v>
       </c>
@@ -21918,7 +21923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>1</v>
       </c>
@@ -21947,7 +21952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>4</v>
       </c>
@@ -21976,7 +21981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>1</v>
       </c>
@@ -22005,7 +22010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>0</v>
       </c>
@@ -22034,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>2</v>
       </c>
@@ -22063,7 +22068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>2</v>
       </c>
@@ -22092,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>3</v>
       </c>
@@ -22121,7 +22126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>8</v>
       </c>
@@ -22150,7 +22155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>2</v>
       </c>
@@ -22179,7 +22184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>2</v>
       </c>
@@ -22208,7 +22213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>2</v>
       </c>
@@ -22237,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>4</v>
       </c>
@@ -22266,7 +22271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>0</v>
       </c>
@@ -22295,7 +22300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>8</v>
       </c>
@@ -22324,7 +22329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>2</v>
       </c>
@@ -22353,7 +22358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>1</v>
       </c>
@@ -22382,7 +22387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>11</v>
       </c>
@@ -22411,7 +22416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>3</v>
       </c>
@@ -22440,7 +22445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>1</v>
       </c>
@@ -22469,7 +22474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>9</v>
       </c>
@@ -22498,7 +22503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>13</v>
       </c>
@@ -22527,7 +22532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>12</v>
       </c>
@@ -22556,7 +22561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>1</v>
       </c>
@@ -22585,7 +22590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>1</v>
       </c>
@@ -22614,7 +22619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>3</v>
       </c>
@@ -22643,7 +22648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>6</v>
       </c>
@@ -22672,7 +22677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>4</v>
       </c>
@@ -22701,7 +22706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>1</v>
       </c>
@@ -22730,7 +22735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>3</v>
       </c>
@@ -22759,7 +22764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>0</v>
       </c>
@@ -22788,7 +22793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>8</v>
       </c>
@@ -22817,7 +22822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>1</v>
       </c>
@@ -22846,7 +22851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>7</v>
       </c>
@@ -22875,7 +22880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>0</v>
       </c>
@@ -22904,7 +22909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>1</v>
       </c>
@@ -22933,7 +22938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>6</v>
       </c>
@@ -22962,7 +22967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>2</v>
       </c>
@@ -22991,7 +22996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>9</v>
       </c>
@@ -23020,7 +23025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>9</v>
       </c>
@@ -23049,7 +23054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>10</v>
       </c>
@@ -23078,7 +23083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>2</v>
       </c>
@@ -23107,7 +23112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>5</v>
       </c>
@@ -23136,7 +23141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>1</v>
       </c>
@@ -23165,7 +23170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>1</v>
       </c>
